--- a/projets/01-analyse-ventes-ecommerce/Bardey_Rémi_2_clients_affilies_022025.xlsx
+++ b/projets/01-analyse-ventes-ecommerce/Bardey_Rémi_2_clients_affilies_022025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46d151e79515dcd6/Documents/GitHub/Data-Analyse/01 - Analyse des ventes d'un e-commerce/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46d151e79515dcd6/Documents/GitHub/portfolio/projets/01-analyse-ventes-ecommerce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F7D8013ABDC61A1E9D32EEFB7A2FD87CAEFA1777" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8554F7DD-8EE6-433F-8A55-59BD45DD6B7E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F7D8013ABDC61A1E9D32EEFB7A2FD87CAEFA1777" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A95EF3-0777-49CE-8166-B5033B39E50E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de bord" sheetId="1" r:id="rId1"/>
@@ -1563,20 +1563,6 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -1586,18 +1572,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1728,7 +1728,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1851,7 +1851,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -1993,7 +1993,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1200" b="0">
+                  <a:rPr lang="fr-FR" sz="1200" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2074,7 +2074,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1200" b="0">
+                  <a:rPr lang="fr-FR" sz="1200" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -8451,7 +8451,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1200" b="0">
+                  <a:rPr lang="fr-FR" sz="1200" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -8532,7 +8532,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1200" b="0">
+                  <a:rPr lang="fr-FR" sz="1200" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -9061,7 +9061,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001915D95F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9160,7 +9160,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF8A347A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9197,7 +9197,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085F1A94F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9234,7 +9234,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A82DD77}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9271,7 +9271,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000171E073B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9308,7 +9308,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040A8E558}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9345,7 +9345,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0D6117C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9382,7 +9382,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014F1FC66}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9469,7 +9469,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rémi Bardey" refreshedDate="46037.579468981479" refreshedVersion="8" recordCount="660" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rémi Bardey" refreshedDate="46038.406750694441" refreshedVersion="8" recordCount="660" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D661" sheet="DATA Février (clients affiliés)"/>
   </cacheSource>
@@ -14456,7 +14456,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14499,17 +14499,17 @@
     </row>
     <row r="2" spans="1:26" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="1"/>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -15085,17 +15085,17 @@
     </row>
     <row r="19" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="95"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -15787,17 +15787,17 @@
     </row>
     <row r="44" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -16489,17 +16489,17 @@
     </row>
     <row r="69" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="96" t="s">
+      <c r="B69" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="95"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="107"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -17191,17 +17191,17 @@
     </row>
     <row r="94" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="97" t="s">
+      <c r="B94" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="94"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="94"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="94"/>
-      <c r="J94" s="95"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="106"/>
+      <c r="G94" s="106"/>
+      <c r="H94" s="106"/>
+      <c r="I94" s="106"/>
+      <c r="J94" s="107"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -17893,17 +17893,17 @@
     </row>
     <row r="119" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="96" t="s">
+      <c r="B119" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C119" s="94"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="94"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="94"/>
-      <c r="H119" s="94"/>
-      <c r="I119" s="94"/>
-      <c r="J119" s="95"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="106"/>
+      <c r="G119" s="106"/>
+      <c r="H119" s="106"/>
+      <c r="I119" s="106"/>
+      <c r="J119" s="107"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -19351,17 +19351,17 @@
     </row>
     <row r="171" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
-      <c r="B171" s="97" t="s">
+      <c r="B171" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C171" s="94"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="94"/>
-      <c r="F171" s="94"/>
-      <c r="G171" s="94"/>
-      <c r="H171" s="94"/>
-      <c r="I171" s="94"/>
-      <c r="J171" s="95"/>
+      <c r="C171" s="106"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="106"/>
+      <c r="F171" s="106"/>
+      <c r="G171" s="106"/>
+      <c r="H171" s="106"/>
+      <c r="I171" s="106"/>
+      <c r="J171" s="107"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
@@ -42612,17 +42612,17 @@
       <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -42641,1580 +42641,1580 @@
       <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="104"/>
-      <c r="C6" s="99" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="99" t="s">
+      <c r="F6" s="96"/>
+      <c r="G6" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="99" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="107"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="99">
+      <c r="B8" s="93">
         <v>1</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="111">
         <v>201.41</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="112">
         <v>4</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="111">
         <v>233.41</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="112">
         <v>5</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="111">
         <v>434.82000000000005</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="113">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="111">
+      <c r="B9" s="102">
         <v>2</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="114">
         <v>142.66</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="115">
         <v>2</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="114">
         <v>728.97</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="115">
         <v>10</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="114">
         <v>871.63</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="116">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="111">
+      <c r="B10" s="102">
         <v>3</v>
       </c>
-      <c r="C10" s="112">
+      <c r="C10" s="114">
         <v>360.62</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="115">
         <v>5</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="114">
         <v>275.13</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="115">
         <v>4</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="114">
         <v>635.75000000000011</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="116">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="111">
+      <c r="B11" s="102">
         <v>4</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="114">
         <v>138.84</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="115">
         <v>2</v>
       </c>
-      <c r="E11" s="112">
+      <c r="E11" s="114">
         <v>272.82</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="115">
         <v>4</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="114">
         <v>411.65999999999997</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="116">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="111">
+      <c r="B12" s="102">
         <v>5</v>
       </c>
-      <c r="C12" s="112">
+      <c r="C12" s="114">
         <v>163.14000000000001</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="115">
         <v>3</v>
       </c>
-      <c r="E12" s="112">
+      <c r="E12" s="114">
         <v>580.52</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="115">
         <v>10</v>
       </c>
-      <c r="G12" s="112">
+      <c r="G12" s="114">
         <v>743.66000000000008</v>
       </c>
-      <c r="H12" s="114">
+      <c r="H12" s="116">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="111">
+      <c r="B13" s="102">
         <v>6</v>
       </c>
-      <c r="C13" s="112">
+      <c r="C13" s="114">
         <v>338.63</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="115">
         <v>6</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="114">
         <v>248.14</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="115">
         <v>4</v>
       </c>
-      <c r="G13" s="112">
+      <c r="G13" s="114">
         <v>586.77</v>
       </c>
-      <c r="H13" s="114">
+      <c r="H13" s="116">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="111">
+      <c r="B14" s="102">
         <v>7</v>
       </c>
-      <c r="C14" s="112">
+      <c r="C14" s="114">
         <v>536.27</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="115">
         <v>8</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="114">
         <v>320.99</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="115">
         <v>8</v>
       </c>
-      <c r="G14" s="112">
+      <c r="G14" s="114">
         <v>857.25999999999988</v>
       </c>
-      <c r="H14" s="114">
+      <c r="H14" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="111">
+      <c r="B15" s="102">
         <v>8</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="114">
         <v>136.15</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="115">
         <v>2</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="114">
         <v>373.76</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="115">
         <v>7</v>
       </c>
-      <c r="G15" s="112">
+      <c r="G15" s="114">
         <v>509.91</v>
       </c>
-      <c r="H15" s="114">
+      <c r="H15" s="116">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="111">
+      <c r="B16" s="102">
         <v>9</v>
       </c>
-      <c r="C16" s="112">
+      <c r="C16" s="114">
         <v>273.39</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="115">
         <v>5</v>
       </c>
-      <c r="E16" s="112">
+      <c r="E16" s="114">
         <v>608.83999999999992</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="115">
         <v>11</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="114">
         <v>882.22999999999979</v>
       </c>
-      <c r="H16" s="114">
+      <c r="H16" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="B17" s="111">
+      <c r="B17" s="102">
         <v>10</v>
       </c>
-      <c r="C17" s="112">
+      <c r="C17" s="114">
         <v>223.78</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="115">
         <v>5</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="114">
         <v>523.89</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="115">
         <v>10</v>
       </c>
-      <c r="G17" s="112">
+      <c r="G17" s="114">
         <v>747.67</v>
       </c>
-      <c r="H17" s="114">
+      <c r="H17" s="116">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
-      <c r="B18" s="111">
+      <c r="B18" s="102">
         <v>11</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="114">
         <v>150.73999999999998</v>
       </c>
-      <c r="D18" s="113">
+      <c r="D18" s="115">
         <v>3</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="114">
         <v>99.86</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="115">
         <v>2</v>
       </c>
-      <c r="G18" s="112">
+      <c r="G18" s="114">
         <v>250.59999999999997</v>
       </c>
-      <c r="H18" s="114">
+      <c r="H18" s="116">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
-      <c r="B19" s="111">
+      <c r="B19" s="102">
         <v>12</v>
       </c>
-      <c r="C19" s="112">
+      <c r="C19" s="114">
         <v>182.85</v>
       </c>
-      <c r="D19" s="113">
+      <c r="D19" s="115">
         <v>3</v>
       </c>
-      <c r="E19" s="112">
+      <c r="E19" s="114">
         <v>260.83</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F19" s="115">
         <v>5</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="114">
         <v>443.67999999999995</v>
       </c>
-      <c r="H19" s="114">
+      <c r="H19" s="116">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
-      <c r="B20" s="111">
+      <c r="B20" s="102">
         <v>13</v>
       </c>
-      <c r="C20" s="112">
+      <c r="C20" s="114">
         <v>284.57</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="115">
         <v>4</v>
       </c>
-      <c r="E20" s="112">
+      <c r="E20" s="114">
         <v>311.83</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="115">
         <v>7</v>
       </c>
-      <c r="G20" s="112">
+      <c r="G20" s="114">
         <v>596.4</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="116">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
-      <c r="B21" s="111">
+      <c r="B21" s="102">
         <v>14</v>
       </c>
-      <c r="C21" s="112">
+      <c r="C21" s="114">
         <v>273.77999999999997</v>
       </c>
-      <c r="D21" s="113">
+      <c r="D21" s="115">
         <v>4</v>
       </c>
-      <c r="E21" s="112">
+      <c r="E21" s="114">
         <v>612.15000000000009</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="115">
         <v>10</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="114">
         <v>885.92999999999984</v>
       </c>
-      <c r="H21" s="114">
+      <c r="H21" s="116">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="111">
+      <c r="B22" s="102">
         <v>15</v>
       </c>
-      <c r="C22" s="112">
+      <c r="C22" s="114">
         <v>190.66000000000003</v>
       </c>
-      <c r="D22" s="113">
+      <c r="D22" s="115">
         <v>3</v>
       </c>
-      <c r="E22" s="112">
+      <c r="E22" s="114">
         <v>872.34</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="115">
         <v>13</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="114">
         <v>1063</v>
       </c>
-      <c r="H22" s="114">
+      <c r="H22" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="111">
+      <c r="B23" s="102">
         <v>16</v>
       </c>
-      <c r="C23" s="112">
+      <c r="C23" s="114">
         <v>378.16</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="115">
         <v>6</v>
       </c>
-      <c r="E23" s="112">
+      <c r="E23" s="114">
         <v>588.88</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="115">
         <v>8</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="114">
         <v>967.04000000000008</v>
       </c>
-      <c r="H23" s="114">
+      <c r="H23" s="116">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="111">
+      <c r="B24" s="102">
         <v>17</v>
       </c>
-      <c r="C24" s="112">
+      <c r="C24" s="114">
         <v>125.61</v>
       </c>
-      <c r="D24" s="113">
+      <c r="D24" s="115">
         <v>3</v>
       </c>
-      <c r="E24" s="112">
+      <c r="E24" s="114">
         <v>783.24999999999989</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="115">
         <v>13</v>
       </c>
-      <c r="G24" s="112">
+      <c r="G24" s="114">
         <v>908.86</v>
       </c>
-      <c r="H24" s="114">
+      <c r="H24" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="111">
+      <c r="B25" s="102">
         <v>18</v>
       </c>
-      <c r="C25" s="112">
+      <c r="C25" s="114">
         <v>531.18999999999994</v>
       </c>
-      <c r="D25" s="113">
+      <c r="D25" s="115">
         <v>8</v>
       </c>
-      <c r="E25" s="112">
+      <c r="E25" s="114">
         <v>483.06</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="115">
         <v>7</v>
       </c>
-      <c r="G25" s="112">
+      <c r="G25" s="114">
         <v>1014.25</v>
       </c>
-      <c r="H25" s="114">
+      <c r="H25" s="116">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
-      <c r="B26" s="111">
+      <c r="B26" s="102">
         <v>19</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="114">
         <v>169.83999999999997</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="115">
         <v>3</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="114">
         <v>531.19000000000005</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="115">
         <v>11</v>
       </c>
-      <c r="G26" s="112">
+      <c r="G26" s="114">
         <v>701.03</v>
       </c>
-      <c r="H26" s="114">
+      <c r="H26" s="116">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="111">
+      <c r="B27" s="102">
         <v>20</v>
       </c>
-      <c r="C27" s="112">
+      <c r="C27" s="114">
         <v>368.8</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="115">
         <v>6</v>
       </c>
-      <c r="E27" s="112">
+      <c r="E27" s="114">
         <v>779.15</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="115">
         <v>12</v>
       </c>
-      <c r="G27" s="112">
+      <c r="G27" s="114">
         <v>1147.95</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="116">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="111">
+      <c r="B28" s="102">
         <v>21</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="112">
+      <c r="C28" s="114"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="114">
         <v>573.63</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="115">
         <v>10</v>
       </c>
-      <c r="G28" s="112">
+      <c r="G28" s="114">
         <v>573.63</v>
       </c>
-      <c r="H28" s="114">
+      <c r="H28" s="116">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="111">
+      <c r="B29" s="102">
         <v>22</v>
       </c>
-      <c r="C29" s="112">
+      <c r="C29" s="114">
         <v>291.37</v>
       </c>
-      <c r="D29" s="113">
+      <c r="D29" s="115">
         <v>5</v>
       </c>
-      <c r="E29" s="112">
+      <c r="E29" s="114">
         <v>743.33</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="115">
         <v>10</v>
       </c>
-      <c r="G29" s="112">
+      <c r="G29" s="114">
         <v>1034.6999999999998</v>
       </c>
-      <c r="H29" s="114">
+      <c r="H29" s="116">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="111">
+      <c r="B30" s="102">
         <v>23</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="114">
         <v>418.84000000000003</v>
       </c>
-      <c r="D30" s="113">
+      <c r="D30" s="115">
         <v>8</v>
       </c>
-      <c r="E30" s="112">
+      <c r="E30" s="114">
         <v>415.29999999999995</v>
       </c>
-      <c r="F30" s="113">
+      <c r="F30" s="115">
         <v>7</v>
       </c>
-      <c r="G30" s="112">
+      <c r="G30" s="114">
         <v>834.1400000000001</v>
       </c>
-      <c r="H30" s="114">
+      <c r="H30" s="116">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
-      <c r="B31" s="111">
+      <c r="B31" s="102">
         <v>24</v>
       </c>
-      <c r="C31" s="112">
+      <c r="C31" s="114">
         <v>631.71</v>
       </c>
-      <c r="D31" s="113">
+      <c r="D31" s="115">
         <v>10</v>
       </c>
-      <c r="E31" s="112">
+      <c r="E31" s="114">
         <v>878.62</v>
       </c>
-      <c r="F31" s="113">
+      <c r="F31" s="115">
         <v>14</v>
       </c>
-      <c r="G31" s="112">
+      <c r="G31" s="114">
         <v>1510.33</v>
       </c>
-      <c r="H31" s="114">
+      <c r="H31" s="116">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="111">
+      <c r="B32" s="102">
         <v>25</v>
       </c>
-      <c r="C32" s="112">
+      <c r="C32" s="114">
         <v>368.74</v>
       </c>
-      <c r="D32" s="113">
+      <c r="D32" s="115">
         <v>5</v>
       </c>
-      <c r="E32" s="112">
+      <c r="E32" s="114">
         <v>1028.4100000000001</v>
       </c>
-      <c r="F32" s="113">
+      <c r="F32" s="115">
         <v>18</v>
       </c>
-      <c r="G32" s="112">
+      <c r="G32" s="114">
         <v>1397.1499999999999</v>
       </c>
-      <c r="H32" s="114">
+      <c r="H32" s="116">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="111">
+      <c r="B33" s="102">
         <v>26</v>
       </c>
-      <c r="C33" s="112">
+      <c r="C33" s="114">
         <v>619.51</v>
       </c>
-      <c r="D33" s="113">
+      <c r="D33" s="115">
         <v>10</v>
       </c>
-      <c r="E33" s="112">
+      <c r="E33" s="114">
         <v>719.24</v>
       </c>
-      <c r="F33" s="113">
+      <c r="F33" s="115">
         <v>11</v>
       </c>
-      <c r="G33" s="112">
+      <c r="G33" s="114">
         <v>1338.75</v>
       </c>
-      <c r="H33" s="114">
+      <c r="H33" s="116">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="111">
+      <c r="B34" s="102">
         <v>27</v>
       </c>
-      <c r="C34" s="112">
+      <c r="C34" s="114">
         <v>364.59999999999997</v>
       </c>
-      <c r="D34" s="113">
+      <c r="D34" s="115">
         <v>7</v>
       </c>
-      <c r="E34" s="112">
+      <c r="E34" s="114">
         <v>570.92999999999995</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="115">
         <v>10</v>
       </c>
-      <c r="G34" s="112">
+      <c r="G34" s="114">
         <v>935.53</v>
       </c>
-      <c r="H34" s="114">
+      <c r="H34" s="116">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
-      <c r="B35" s="111">
+      <c r="B35" s="102">
         <v>28</v>
       </c>
-      <c r="C35" s="112">
+      <c r="C35" s="114">
         <v>544.32000000000005</v>
       </c>
-      <c r="D35" s="113">
+      <c r="D35" s="115">
         <v>9</v>
       </c>
-      <c r="E35" s="112">
+      <c r="E35" s="114">
         <v>481.02</v>
       </c>
-      <c r="F35" s="113">
+      <c r="F35" s="115">
         <v>8</v>
       </c>
-      <c r="G35" s="112">
+      <c r="G35" s="114">
         <v>1025.3400000000001</v>
       </c>
-      <c r="H35" s="114">
+      <c r="H35" s="116">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
-      <c r="B36" s="111">
+      <c r="B36" s="102">
         <v>29</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="114">
         <v>256.71999999999997</v>
       </c>
-      <c r="D36" s="113">
+      <c r="D36" s="115">
         <v>5</v>
       </c>
-      <c r="E36" s="112">
+      <c r="E36" s="114">
         <v>541.62</v>
       </c>
-      <c r="F36" s="113">
+      <c r="F36" s="115">
         <v>11</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="114">
         <v>798.33999999999992</v>
       </c>
-      <c r="H36" s="114">
+      <c r="H36" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
-      <c r="B37" s="111">
+      <c r="B37" s="102">
         <v>30</v>
       </c>
-      <c r="C37" s="112">
+      <c r="C37" s="114">
         <v>481.39</v>
       </c>
-      <c r="D37" s="113">
+      <c r="D37" s="115">
         <v>8</v>
       </c>
-      <c r="E37" s="112">
+      <c r="E37" s="114">
         <v>519.33000000000004</v>
       </c>
-      <c r="F37" s="113">
+      <c r="F37" s="115">
         <v>10</v>
       </c>
-      <c r="G37" s="112">
+      <c r="G37" s="114">
         <v>1000.72</v>
       </c>
-      <c r="H37" s="114">
+      <c r="H37" s="116">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
-      <c r="B38" s="111">
+      <c r="B38" s="102">
         <v>31</v>
       </c>
-      <c r="C38" s="112">
+      <c r="C38" s="114">
         <v>589.95999999999992</v>
       </c>
-      <c r="D38" s="113">
+      <c r="D38" s="115">
         <v>11</v>
       </c>
-      <c r="E38" s="112">
+      <c r="E38" s="114">
         <v>525.25</v>
       </c>
-      <c r="F38" s="113">
+      <c r="F38" s="115">
         <v>8</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G38" s="114">
         <v>1115.21</v>
       </c>
-      <c r="H38" s="114">
+      <c r="H38" s="116">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
-      <c r="B39" s="111">
+      <c r="B39" s="102">
         <v>32</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="112">
+      <c r="C39" s="114"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="114">
         <v>742.90999999999985</v>
       </c>
-      <c r="F39" s="113">
+      <c r="F39" s="115">
         <v>11</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="114">
         <v>742.90999999999985</v>
       </c>
-      <c r="H39" s="114">
+      <c r="H39" s="116">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
-      <c r="B40" s="111">
+      <c r="B40" s="102">
         <v>33</v>
       </c>
-      <c r="C40" s="112">
+      <c r="C40" s="114">
         <v>246.23000000000002</v>
       </c>
-      <c r="D40" s="113">
+      <c r="D40" s="115">
         <v>4</v>
       </c>
-      <c r="E40" s="112">
+      <c r="E40" s="114">
         <v>304.17</v>
       </c>
-      <c r="F40" s="113">
+      <c r="F40" s="115">
         <v>4</v>
       </c>
-      <c r="G40" s="112">
+      <c r="G40" s="114">
         <v>550.40000000000009</v>
       </c>
-      <c r="H40" s="114">
+      <c r="H40" s="116">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
-      <c r="B41" s="111">
+      <c r="B41" s="102">
         <v>34</v>
       </c>
-      <c r="C41" s="112">
+      <c r="C41" s="114">
         <v>463.87</v>
       </c>
-      <c r="D41" s="113">
+      <c r="D41" s="115">
         <v>8</v>
       </c>
-      <c r="E41" s="112">
+      <c r="E41" s="114">
         <v>299.14999999999998</v>
       </c>
-      <c r="F41" s="113">
+      <c r="F41" s="115">
         <v>6</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="114">
         <v>763.02</v>
       </c>
-      <c r="H41" s="114">
+      <c r="H41" s="116">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
-      <c r="B42" s="111">
+      <c r="B42" s="102">
         <v>35</v>
       </c>
-      <c r="C42" s="112">
+      <c r="C42" s="114">
         <v>482.34000000000003</v>
       </c>
-      <c r="D42" s="113">
+      <c r="D42" s="115">
         <v>7</v>
       </c>
-      <c r="E42" s="112">
+      <c r="E42" s="114">
         <v>639.66</v>
       </c>
-      <c r="F42" s="113">
+      <c r="F42" s="115">
         <v>9</v>
       </c>
-      <c r="G42" s="112">
+      <c r="G42" s="114">
         <v>1122</v>
       </c>
-      <c r="H42" s="114">
+      <c r="H42" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
-      <c r="B43" s="111">
+      <c r="B43" s="102">
         <v>36</v>
       </c>
-      <c r="C43" s="112">
+      <c r="C43" s="114">
         <v>505.64</v>
       </c>
-      <c r="D43" s="113">
+      <c r="D43" s="115">
         <v>8</v>
       </c>
-      <c r="E43" s="112">
+      <c r="E43" s="114">
         <v>729.20999999999992</v>
       </c>
-      <c r="F43" s="113">
+      <c r="F43" s="115">
         <v>11</v>
       </c>
-      <c r="G43" s="112">
+      <c r="G43" s="114">
         <v>1234.8499999999999</v>
       </c>
-      <c r="H43" s="114">
+      <c r="H43" s="116">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
-      <c r="B44" s="111">
+      <c r="B44" s="102">
         <v>37</v>
       </c>
-      <c r="C44" s="112">
+      <c r="C44" s="114">
         <v>112.71000000000001</v>
       </c>
-      <c r="D44" s="113">
+      <c r="D44" s="115">
         <v>2</v>
       </c>
-      <c r="E44" s="112">
+      <c r="E44" s="114">
         <v>338.86</v>
       </c>
-      <c r="F44" s="113">
+      <c r="F44" s="115">
         <v>6</v>
       </c>
-      <c r="G44" s="112">
+      <c r="G44" s="114">
         <v>451.56999999999994</v>
       </c>
-      <c r="H44" s="114">
+      <c r="H44" s="116">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
-      <c r="B45" s="111">
+      <c r="B45" s="102">
         <v>38</v>
       </c>
-      <c r="C45" s="112">
+      <c r="C45" s="114">
         <v>568.76</v>
       </c>
-      <c r="D45" s="113">
+      <c r="D45" s="115">
         <v>10</v>
       </c>
-      <c r="E45" s="112">
+      <c r="E45" s="114">
         <v>526.25</v>
       </c>
-      <c r="F45" s="113">
+      <c r="F45" s="115">
         <v>9</v>
       </c>
-      <c r="G45" s="112">
+      <c r="G45" s="114">
         <v>1095.01</v>
       </c>
-      <c r="H45" s="114">
+      <c r="H45" s="116">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
-      <c r="B46" s="111">
+      <c r="B46" s="102">
         <v>39</v>
       </c>
-      <c r="C46" s="112">
+      <c r="C46" s="114">
         <v>231.14</v>
       </c>
-      <c r="D46" s="113">
+      <c r="D46" s="115">
         <v>4</v>
       </c>
-      <c r="E46" s="112">
+      <c r="E46" s="114">
         <v>311.79000000000002</v>
       </c>
-      <c r="F46" s="113">
+      <c r="F46" s="115">
         <v>5</v>
       </c>
-      <c r="G46" s="112">
+      <c r="G46" s="114">
         <v>542.92999999999995</v>
       </c>
-      <c r="H46" s="114">
+      <c r="H46" s="116">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
-      <c r="B47" s="111">
+      <c r="B47" s="102">
         <v>40</v>
       </c>
-      <c r="C47" s="112">
+      <c r="C47" s="114">
         <v>88.13</v>
       </c>
-      <c r="D47" s="113">
+      <c r="D47" s="115">
         <v>2</v>
       </c>
-      <c r="E47" s="112">
+      <c r="E47" s="114">
         <v>433.92</v>
       </c>
-      <c r="F47" s="113">
+      <c r="F47" s="115">
         <v>6</v>
       </c>
-      <c r="G47" s="112">
+      <c r="G47" s="114">
         <v>522.04999999999995</v>
       </c>
-      <c r="H47" s="114">
+      <c r="H47" s="116">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
-      <c r="B48" s="111">
+      <c r="B48" s="102">
         <v>41</v>
       </c>
-      <c r="C48" s="112">
+      <c r="C48" s="114">
         <v>237.23000000000002</v>
       </c>
-      <c r="D48" s="113">
+      <c r="D48" s="115">
         <v>4</v>
       </c>
-      <c r="E48" s="112">
+      <c r="E48" s="114">
         <v>547.75</v>
       </c>
-      <c r="F48" s="113">
+      <c r="F48" s="115">
         <v>7</v>
       </c>
-      <c r="G48" s="112">
+      <c r="G48" s="114">
         <v>784.98</v>
       </c>
-      <c r="H48" s="114">
+      <c r="H48" s="116">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
-      <c r="B49" s="111">
+      <c r="B49" s="102">
         <v>42</v>
       </c>
-      <c r="C49" s="112">
+      <c r="C49" s="114">
         <v>211.31</v>
       </c>
-      <c r="D49" s="113">
+      <c r="D49" s="115">
         <v>3</v>
       </c>
-      <c r="E49" s="112">
+      <c r="E49" s="114">
         <v>411.21</v>
       </c>
-      <c r="F49" s="113">
+      <c r="F49" s="115">
         <v>7</v>
       </c>
-      <c r="G49" s="112">
+      <c r="G49" s="114">
         <v>622.52</v>
       </c>
-      <c r="H49" s="114">
+      <c r="H49" s="116">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
-      <c r="B50" s="111">
+      <c r="B50" s="102">
         <v>43</v>
       </c>
-      <c r="C50" s="112">
+      <c r="C50" s="114">
         <v>259.49</v>
       </c>
-      <c r="D50" s="113">
+      <c r="D50" s="115">
         <v>5</v>
       </c>
-      <c r="E50" s="112">
+      <c r="E50" s="114">
         <v>229.98</v>
       </c>
-      <c r="F50" s="113">
+      <c r="F50" s="115">
         <v>5</v>
       </c>
-      <c r="G50" s="112">
+      <c r="G50" s="114">
         <v>489.47</v>
       </c>
-      <c r="H50" s="114">
+      <c r="H50" s="116">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
-      <c r="B51" s="111">
+      <c r="B51" s="102">
         <v>44</v>
       </c>
-      <c r="C51" s="112">
+      <c r="C51" s="114">
         <v>173.57</v>
       </c>
-      <c r="D51" s="113">
+      <c r="D51" s="115">
         <v>2</v>
       </c>
-      <c r="E51" s="112">
+      <c r="E51" s="114">
         <v>293.58000000000004</v>
       </c>
-      <c r="F51" s="113">
+      <c r="F51" s="115">
         <v>4</v>
       </c>
-      <c r="G51" s="112">
+      <c r="G51" s="114">
         <v>467.15</v>
       </c>
-      <c r="H51" s="114">
+      <c r="H51" s="116">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
-      <c r="B52" s="111">
+      <c r="B52" s="102">
         <v>45</v>
       </c>
-      <c r="C52" s="112">
+      <c r="C52" s="114">
         <v>118.16</v>
       </c>
-      <c r="D52" s="113">
+      <c r="D52" s="115">
         <v>2</v>
       </c>
-      <c r="E52" s="112">
+      <c r="E52" s="114">
         <v>132.71</v>
       </c>
-      <c r="F52" s="113">
+      <c r="F52" s="115">
         <v>2</v>
       </c>
-      <c r="G52" s="112">
+      <c r="G52" s="114">
         <v>250.87</v>
       </c>
-      <c r="H52" s="114">
+      <c r="H52" s="116">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
-      <c r="B53" s="111">
+      <c r="B53" s="102">
         <v>46</v>
       </c>
-      <c r="C53" s="112">
+      <c r="C53" s="114">
         <v>142.07999999999998</v>
       </c>
-      <c r="D53" s="113">
+      <c r="D53" s="115">
         <v>2</v>
       </c>
-      <c r="E53" s="112">
+      <c r="E53" s="114">
         <v>386.59999999999997</v>
       </c>
-      <c r="F53" s="113">
+      <c r="F53" s="115">
         <v>5</v>
       </c>
-      <c r="G53" s="112">
+      <c r="G53" s="114">
         <v>528.67999999999995</v>
       </c>
-      <c r="H53" s="114">
+      <c r="H53" s="116">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
-      <c r="B54" s="111">
+      <c r="B54" s="102">
         <v>47</v>
       </c>
-      <c r="C54" s="112">
+      <c r="C54" s="114">
         <v>284.72000000000003</v>
       </c>
-      <c r="D54" s="113">
+      <c r="D54" s="115">
         <v>5</v>
       </c>
-      <c r="E54" s="112">
+      <c r="E54" s="114">
         <v>95</v>
       </c>
-      <c r="F54" s="113">
+      <c r="F54" s="115">
         <v>2</v>
       </c>
-      <c r="G54" s="112">
+      <c r="G54" s="114">
         <v>379.72</v>
       </c>
-      <c r="H54" s="114">
+      <c r="H54" s="116">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
-      <c r="B55" s="111">
+      <c r="B55" s="102">
         <v>48</v>
       </c>
-      <c r="C55" s="112">
+      <c r="C55" s="114">
         <v>142.58999999999997</v>
       </c>
-      <c r="D55" s="113">
+      <c r="D55" s="115">
         <v>2</v>
       </c>
-      <c r="E55" s="112">
+      <c r="E55" s="114">
         <v>352.4</v>
       </c>
-      <c r="F55" s="113">
+      <c r="F55" s="115">
         <v>7</v>
       </c>
-      <c r="G55" s="112">
+      <c r="G55" s="114">
         <v>494.99</v>
       </c>
-      <c r="H55" s="114">
+      <c r="H55" s="116">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
-      <c r="B56" s="111">
+      <c r="B56" s="102">
         <v>49</v>
       </c>
-      <c r="C56" s="112">
+      <c r="C56" s="114">
         <v>59.39</v>
       </c>
-      <c r="D56" s="113">
+      <c r="D56" s="115">
         <v>1</v>
       </c>
-      <c r="E56" s="112">
+      <c r="E56" s="114">
         <v>207.24</v>
       </c>
-      <c r="F56" s="113">
+      <c r="F56" s="115">
         <v>4</v>
       </c>
-      <c r="G56" s="112">
+      <c r="G56" s="114">
         <v>266.63</v>
       </c>
-      <c r="H56" s="114">
+      <c r="H56" s="116">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
-      <c r="B57" s="111">
+      <c r="B57" s="102">
         <v>50</v>
       </c>
-      <c r="C57" s="112"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="112">
+      <c r="C57" s="114"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="114">
         <v>254.44</v>
       </c>
-      <c r="F57" s="113">
+      <c r="F57" s="115">
         <v>5</v>
       </c>
-      <c r="G57" s="112">
+      <c r="G57" s="114">
         <v>254.44</v>
       </c>
-      <c r="H57" s="114">
+      <c r="H57" s="116">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
-      <c r="B58" s="111">
+      <c r="B58" s="102">
         <v>51</v>
       </c>
-      <c r="C58" s="112">
+      <c r="C58" s="114">
         <v>119.58000000000001</v>
       </c>
-      <c r="D58" s="113">
+      <c r="D58" s="115">
         <v>2</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="114">
         <v>392.12</v>
       </c>
-      <c r="F58" s="113">
+      <c r="F58" s="115">
         <v>6</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="114">
         <v>511.7</v>
       </c>
-      <c r="H58" s="114">
+      <c r="H58" s="116">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
-      <c r="B59" s="111">
+      <c r="B59" s="102">
         <v>52</v>
       </c>
-      <c r="C59" s="112">
+      <c r="C59" s="114">
         <v>55.46</v>
       </c>
-      <c r="D59" s="113">
+      <c r="D59" s="115">
         <v>1</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="114">
         <v>112.91999999999999</v>
       </c>
-      <c r="F59" s="113">
+      <c r="F59" s="115">
         <v>3</v>
       </c>
-      <c r="G59" s="112">
+      <c r="G59" s="114">
         <v>168.38</v>
       </c>
-      <c r="H59" s="114">
+      <c r="H59" s="116">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
-      <c r="B60" s="111">
+      <c r="B60" s="102">
         <v>53</v>
       </c>
-      <c r="C60" s="112">
+      <c r="C60" s="114">
         <v>70.61</v>
       </c>
-      <c r="D60" s="113">
+      <c r="D60" s="115">
         <v>1</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="114">
         <v>99.96</v>
       </c>
-      <c r="F60" s="113">
+      <c r="F60" s="115">
         <v>1</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="114">
         <v>170.57</v>
       </c>
-      <c r="H60" s="114">
+      <c r="H60" s="116">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
-      <c r="B61" s="111">
+      <c r="B61" s="102">
         <v>54</v>
       </c>
-      <c r="C61" s="112">
+      <c r="C61" s="114">
         <v>85.91</v>
       </c>
-      <c r="D61" s="113">
+      <c r="D61" s="115">
         <v>2</v>
       </c>
-      <c r="E61" s="112">
+      <c r="E61" s="114">
         <v>67.069999999999993</v>
       </c>
-      <c r="F61" s="113">
+      <c r="F61" s="115">
         <v>1</v>
       </c>
-      <c r="G61" s="112">
+      <c r="G61" s="114">
         <v>152.97999999999999</v>
       </c>
-      <c r="H61" s="114">
+      <c r="H61" s="116">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
-      <c r="B62" s="111">
+      <c r="B62" s="102">
         <v>55</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="112">
+      <c r="C62" s="114"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="114">
         <v>72.78</v>
       </c>
-      <c r="F62" s="113">
+      <c r="F62" s="115">
         <v>1</v>
       </c>
-      <c r="G62" s="112">
+      <c r="G62" s="114">
         <v>72.78</v>
       </c>
-      <c r="H62" s="114">
+      <c r="H62" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
-      <c r="B63" s="111">
+      <c r="B63" s="102">
         <v>56</v>
       </c>
-      <c r="C63" s="112"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="112">
+      <c r="C63" s="114"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="114">
         <v>67.02</v>
       </c>
-      <c r="F63" s="113">
+      <c r="F63" s="115">
         <v>1</v>
       </c>
-      <c r="G63" s="112">
+      <c r="G63" s="114">
         <v>67.02</v>
       </c>
-      <c r="H63" s="114">
+      <c r="H63" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
-      <c r="B64" s="111">
+      <c r="B64" s="102">
         <v>57</v>
       </c>
-      <c r="C64" s="112"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="112">
+      <c r="C64" s="114"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="114">
         <v>196.31</v>
       </c>
-      <c r="F64" s="113">
+      <c r="F64" s="115">
         <v>4</v>
       </c>
-      <c r="G64" s="112">
+      <c r="G64" s="114">
         <v>196.31</v>
       </c>
-      <c r="H64" s="114">
+      <c r="H64" s="116">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="111">
+      <c r="B65" s="102">
         <v>58</v>
       </c>
-      <c r="C65" s="112">
+      <c r="C65" s="114">
         <v>53.2</v>
       </c>
-      <c r="D65" s="113">
+      <c r="D65" s="115">
         <v>1</v>
       </c>
-      <c r="E65" s="112"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="112">
+      <c r="E65" s="114"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="114">
         <v>53.2</v>
       </c>
-      <c r="H65" s="114">
+      <c r="H65" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="111">
+      <c r="B66" s="102">
         <v>59</v>
       </c>
-      <c r="C66" s="112">
+      <c r="C66" s="114">
         <v>42.33</v>
       </c>
-      <c r="D66" s="113">
+      <c r="D66" s="115">
         <v>1</v>
       </c>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="112">
+      <c r="E66" s="114"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="114">
         <v>42.33</v>
       </c>
-      <c r="H66" s="114">
+      <c r="H66" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="111">
+      <c r="B67" s="102">
         <v>60</v>
       </c>
-      <c r="C67" s="112">
+      <c r="C67" s="114">
         <v>46.24</v>
       </c>
-      <c r="D67" s="113">
+      <c r="D67" s="115">
         <v>1</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="112">
+      <c r="E67" s="114"/>
+      <c r="F67" s="115"/>
+      <c r="G67" s="114">
         <v>46.24</v>
       </c>
-      <c r="H67" s="114">
+      <c r="H67" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="111">
+      <c r="B68" s="102">
         <v>62</v>
       </c>
-      <c r="C68" s="112">
+      <c r="C68" s="114">
         <v>77.400000000000006</v>
       </c>
-      <c r="D68" s="113">
+      <c r="D68" s="115">
         <v>1</v>
       </c>
-      <c r="E68" s="112"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="112">
+      <c r="E68" s="114"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="114">
         <v>77.400000000000006</v>
       </c>
-      <c r="H68" s="114">
+      <c r="H68" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="111">
+      <c r="B69" s="102">
         <v>63</v>
       </c>
-      <c r="C69" s="112">
+      <c r="C69" s="114">
         <v>39.17</v>
       </c>
-      <c r="D69" s="113">
+      <c r="D69" s="115">
         <v>1</v>
       </c>
-      <c r="E69" s="112"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="112">
+      <c r="E69" s="114"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="114">
         <v>39.17</v>
       </c>
-      <c r="H69" s="114">
+      <c r="H69" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="111">
+      <c r="B70" s="102">
         <v>64</v>
       </c>
-      <c r="C70" s="112"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="112">
+      <c r="C70" s="114"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="114">
         <v>89.18</v>
       </c>
-      <c r="F70" s="113">
+      <c r="F70" s="115">
         <v>1</v>
       </c>
-      <c r="G70" s="112">
+      <c r="G70" s="114">
         <v>89.18</v>
       </c>
-      <c r="H70" s="114">
+      <c r="H70" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="111">
+      <c r="B71" s="102">
         <v>67</v>
       </c>
-      <c r="C71" s="112">
+      <c r="C71" s="114">
         <v>108.39</v>
       </c>
-      <c r="D71" s="113">
+      <c r="D71" s="115">
         <v>2</v>
       </c>
-      <c r="E71" s="112"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="112">
+      <c r="E71" s="114"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="114">
         <v>108.39</v>
       </c>
-      <c r="H71" s="114">
+      <c r="H71" s="116">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="111">
+      <c r="B72" s="102">
         <v>68</v>
       </c>
-      <c r="C72" s="112"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="112">
+      <c r="C72" s="114"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="114">
         <v>23.31</v>
       </c>
-      <c r="F72" s="113">
+      <c r="F72" s="115">
         <v>1</v>
       </c>
-      <c r="G72" s="112">
+      <c r="G72" s="114">
         <v>23.31</v>
       </c>
-      <c r="H72" s="114">
+      <c r="H72" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="111">
+      <c r="B73" s="102">
         <v>74</v>
       </c>
-      <c r="C73" s="112"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="112">
+      <c r="C73" s="114"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="114">
         <v>55.63</v>
       </c>
-      <c r="F73" s="113">
+      <c r="F73" s="115">
         <v>1</v>
       </c>
-      <c r="G73" s="112">
+      <c r="G73" s="114">
         <v>55.63</v>
       </c>
-      <c r="H73" s="114">
+      <c r="H73" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="115" t="s">
+      <c r="B74" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="116">
+      <c r="C74" s="117">
         <v>14763.899999999992</v>
       </c>
-      <c r="D74" s="117">
+      <c r="D74" s="118">
         <v>247</v>
       </c>
-      <c r="E74" s="116">
+      <c r="E74" s="117">
         <v>24898.819999999996</v>
       </c>
-      <c r="F74" s="117">
+      <c r="F74" s="118">
         <v>413</v>
       </c>
-      <c r="G74" s="116">
+      <c r="G74" s="117">
         <v>39662.719999999987</v>
       </c>
-      <c r="H74" s="118">
+      <c r="H74" s="119">
         <v>660</v>
       </c>
     </row>
@@ -72353,913 +72353,913 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="99" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="99">
+      <c r="A3" s="93">
         <v>1</v>
       </c>
-      <c r="B3" s="108">
+      <c r="B3" s="111">
         <v>201.41</v>
       </c>
-      <c r="C3" s="109">
+      <c r="C3" s="112">
         <v>233.41</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="113">
         <v>434.82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="111">
+      <c r="A4" s="102">
         <v>2</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="114">
         <v>142.66</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="115">
         <v>728.97</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="116">
         <v>871.63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="111">
+      <c r="A5" s="102">
         <v>3</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="114">
         <v>360.62</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="115">
         <v>275.13</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="116">
         <v>635.75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="111">
+      <c r="A6" s="102">
         <v>4</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="114">
         <v>138.84</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="115">
         <v>272.82</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="116">
         <v>411.65999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="111">
+      <c r="A7" s="102">
         <v>5</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="114">
         <v>163.14000000000001</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="115">
         <v>580.52</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="116">
         <v>743.66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="111">
+      <c r="A8" s="102">
         <v>6</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="114">
         <v>338.63</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="115">
         <v>248.14</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="116">
         <v>586.77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="111">
+      <c r="A9" s="102">
         <v>7</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="114">
         <v>536.27</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="115">
         <v>320.99</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="116">
         <v>857.26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="111">
+      <c r="A10" s="102">
         <v>8</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="114">
         <v>136.15</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="115">
         <v>373.76</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="116">
         <v>509.90999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="102">
         <v>9</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="114">
         <v>273.39</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="115">
         <v>608.83999999999992</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="116">
         <v>882.2299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="111">
+      <c r="A12" s="102">
         <v>10</v>
       </c>
-      <c r="B12" s="112">
+      <c r="B12" s="114">
         <v>223.78</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="115">
         <v>523.89</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="116">
         <v>747.67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="111">
+      <c r="A13" s="102">
         <v>11</v>
       </c>
-      <c r="B13" s="112">
+      <c r="B13" s="114">
         <v>150.73999999999998</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="115">
         <v>99.86</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="116">
         <v>250.59999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="111">
+      <c r="A14" s="102">
         <v>12</v>
       </c>
-      <c r="B14" s="112">
+      <c r="B14" s="114">
         <v>182.85</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="115">
         <v>260.83</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="116">
         <v>443.67999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="111">
+      <c r="A15" s="102">
         <v>13</v>
       </c>
-      <c r="B15" s="112">
+      <c r="B15" s="114">
         <v>284.57</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="115">
         <v>311.83</v>
       </c>
-      <c r="D15" s="114">
+      <c r="D15" s="116">
         <v>596.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="111">
+      <c r="A16" s="102">
         <v>14</v>
       </c>
-      <c r="B16" s="112">
+      <c r="B16" s="114">
         <v>273.77999999999997</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="115">
         <v>612.15000000000009</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="116">
         <v>885.93000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="111">
+      <c r="A17" s="102">
         <v>15</v>
       </c>
-      <c r="B17" s="112">
+      <c r="B17" s="114">
         <v>190.66000000000003</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="115">
         <v>872.34</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="116">
         <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="111">
+      <c r="A18" s="102">
         <v>16</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="114">
         <v>378.16</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="115">
         <v>588.88</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="116">
         <v>967.04</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="111">
+      <c r="A19" s="102">
         <v>17</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="114">
         <v>125.61</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="115">
         <v>783.24999999999989</v>
       </c>
-      <c r="D19" s="114">
+      <c r="D19" s="116">
         <v>908.8599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="111">
+      <c r="A20" s="102">
         <v>18</v>
       </c>
-      <c r="B20" s="112">
+      <c r="B20" s="114">
         <v>531.18999999999994</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="115">
         <v>483.06</v>
       </c>
-      <c r="D20" s="114">
+      <c r="D20" s="116">
         <v>1014.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="111">
+      <c r="A21" s="102">
         <v>19</v>
       </c>
-      <c r="B21" s="112">
+      <c r="B21" s="114">
         <v>169.83999999999997</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="115">
         <v>531.19000000000005</v>
       </c>
-      <c r="D21" s="114">
+      <c r="D21" s="116">
         <v>701.03</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="111">
+      <c r="A22" s="102">
         <v>20</v>
       </c>
-      <c r="B22" s="112">
+      <c r="B22" s="114">
         <v>368.8</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="115">
         <v>779.15</v>
       </c>
-      <c r="D22" s="114">
+      <c r="D22" s="116">
         <v>1147.95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="111">
+      <c r="A23" s="102">
         <v>21</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113">
+      <c r="B23" s="114"/>
+      <c r="C23" s="115">
         <v>573.63</v>
       </c>
-      <c r="D23" s="114">
+      <c r="D23" s="116">
         <v>573.63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="111">
+      <c r="A24" s="102">
         <v>22</v>
       </c>
-      <c r="B24" s="112">
+      <c r="B24" s="114">
         <v>291.37</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="115">
         <v>743.33</v>
       </c>
-      <c r="D24" s="114">
+      <c r="D24" s="116">
         <v>1034.7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="111">
+      <c r="A25" s="102">
         <v>23</v>
       </c>
-      <c r="B25" s="112">
+      <c r="B25" s="114">
         <v>418.84000000000003</v>
       </c>
-      <c r="C25" s="113">
+      <c r="C25" s="115">
         <v>415.29999999999995</v>
       </c>
-      <c r="D25" s="114">
+      <c r="D25" s="116">
         <v>834.14</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="111">
+      <c r="A26" s="102">
         <v>24</v>
       </c>
-      <c r="B26" s="112">
+      <c r="B26" s="114">
         <v>631.71</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="115">
         <v>878.62</v>
       </c>
-      <c r="D26" s="114">
+      <c r="D26" s="116">
         <v>1510.33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="111">
+      <c r="A27" s="102">
         <v>25</v>
       </c>
-      <c r="B27" s="112">
+      <c r="B27" s="114">
         <v>368.74</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="115">
         <v>1028.4100000000001</v>
       </c>
-      <c r="D27" s="114">
+      <c r="D27" s="116">
         <v>1397.15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="111">
+      <c r="A28" s="102">
         <v>26</v>
       </c>
-      <c r="B28" s="112">
+      <c r="B28" s="114">
         <v>619.51</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="115">
         <v>719.24</v>
       </c>
-      <c r="D28" s="114">
+      <c r="D28" s="116">
         <v>1338.75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="111">
+      <c r="A29" s="102">
         <v>27</v>
       </c>
-      <c r="B29" s="112">
+      <c r="B29" s="114">
         <v>364.59999999999997</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="115">
         <v>570.92999999999995</v>
       </c>
-      <c r="D29" s="114">
+      <c r="D29" s="116">
         <v>935.53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="111">
+      <c r="A30" s="102">
         <v>28</v>
       </c>
-      <c r="B30" s="112">
+      <c r="B30" s="114">
         <v>544.32000000000005</v>
       </c>
-      <c r="C30" s="113">
+      <c r="C30" s="115">
         <v>481.02</v>
       </c>
-      <c r="D30" s="114">
+      <c r="D30" s="116">
         <v>1025.3400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="111">
+      <c r="A31" s="102">
         <v>29</v>
       </c>
-      <c r="B31" s="112">
+      <c r="B31" s="114">
         <v>256.71999999999997</v>
       </c>
-      <c r="C31" s="113">
+      <c r="C31" s="115">
         <v>541.62</v>
       </c>
-      <c r="D31" s="114">
+      <c r="D31" s="116">
         <v>798.33999999999992</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="111">
+      <c r="A32" s="102">
         <v>30</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="114">
         <v>481.39</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="115">
         <v>519.33000000000004</v>
       </c>
-      <c r="D32" s="114">
+      <c r="D32" s="116">
         <v>1000.72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="111">
+      <c r="A33" s="102">
         <v>31</v>
       </c>
-      <c r="B33" s="112">
+      <c r="B33" s="114">
         <v>589.95999999999992</v>
       </c>
-      <c r="C33" s="113">
+      <c r="C33" s="115">
         <v>525.25</v>
       </c>
-      <c r="D33" s="114">
+      <c r="D33" s="116">
         <v>1115.21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="111">
+      <c r="A34" s="102">
         <v>32</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113">
+      <c r="B34" s="114"/>
+      <c r="C34" s="115">
         <v>742.90999999999985</v>
       </c>
-      <c r="D34" s="114">
+      <c r="D34" s="116">
         <v>742.90999999999985</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="111">
+      <c r="A35" s="102">
         <v>33</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="114">
         <v>246.23000000000002</v>
       </c>
-      <c r="C35" s="113">
+      <c r="C35" s="115">
         <v>304.17</v>
       </c>
-      <c r="D35" s="114">
+      <c r="D35" s="116">
         <v>550.40000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="111">
+      <c r="A36" s="102">
         <v>34</v>
       </c>
-      <c r="B36" s="112">
+      <c r="B36" s="114">
         <v>463.87</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="115">
         <v>299.14999999999998</v>
       </c>
-      <c r="D36" s="114">
+      <c r="D36" s="116">
         <v>763.02</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="111">
+      <c r="A37" s="102">
         <v>35</v>
       </c>
-      <c r="B37" s="112">
+      <c r="B37" s="114">
         <v>482.34000000000003</v>
       </c>
-      <c r="C37" s="113">
+      <c r="C37" s="115">
         <v>639.66</v>
       </c>
-      <c r="D37" s="114">
+      <c r="D37" s="116">
         <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="111">
+      <c r="A38" s="102">
         <v>36</v>
       </c>
-      <c r="B38" s="112">
+      <c r="B38" s="114">
         <v>505.64</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="115">
         <v>729.20999999999992</v>
       </c>
-      <c r="D38" s="114">
+      <c r="D38" s="116">
         <v>1234.8499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="111">
+      <c r="A39" s="102">
         <v>37</v>
       </c>
-      <c r="B39" s="112">
+      <c r="B39" s="114">
         <v>112.71000000000001</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="115">
         <v>338.86</v>
       </c>
-      <c r="D39" s="114">
+      <c r="D39" s="116">
         <v>451.57000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="111">
+      <c r="A40" s="102">
         <v>38</v>
       </c>
-      <c r="B40" s="112">
+      <c r="B40" s="114">
         <v>568.76</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="115">
         <v>526.25</v>
       </c>
-      <c r="D40" s="114">
+      <c r="D40" s="116">
         <v>1095.01</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="111">
+      <c r="A41" s="102">
         <v>39</v>
       </c>
-      <c r="B41" s="112">
+      <c r="B41" s="114">
         <v>231.14</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="115">
         <v>311.79000000000002</v>
       </c>
-      <c r="D41" s="114">
+      <c r="D41" s="116">
         <v>542.93000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="111">
+      <c r="A42" s="102">
         <v>40</v>
       </c>
-      <c r="B42" s="112">
+      <c r="B42" s="114">
         <v>88.13</v>
       </c>
-      <c r="C42" s="113">
+      <c r="C42" s="115">
         <v>433.92</v>
       </c>
-      <c r="D42" s="114">
+      <c r="D42" s="116">
         <v>522.04999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="111">
+      <c r="A43" s="102">
         <v>41</v>
       </c>
-      <c r="B43" s="112">
+      <c r="B43" s="114">
         <v>237.23000000000002</v>
       </c>
-      <c r="C43" s="113">
+      <c r="C43" s="115">
         <v>547.75</v>
       </c>
-      <c r="D43" s="114">
+      <c r="D43" s="116">
         <v>784.98</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="111">
+      <c r="A44" s="102">
         <v>42</v>
       </c>
-      <c r="B44" s="112">
+      <c r="B44" s="114">
         <v>211.31</v>
       </c>
-      <c r="C44" s="113">
+      <c r="C44" s="115">
         <v>411.21</v>
       </c>
-      <c r="D44" s="114">
+      <c r="D44" s="116">
         <v>622.52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="111">
+      <c r="A45" s="102">
         <v>43</v>
       </c>
-      <c r="B45" s="112">
+      <c r="B45" s="114">
         <v>259.49</v>
       </c>
-      <c r="C45" s="113">
+      <c r="C45" s="115">
         <v>229.98</v>
       </c>
-      <c r="D45" s="114">
+      <c r="D45" s="116">
         <v>489.47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="111">
+      <c r="A46" s="102">
         <v>44</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="114">
         <v>173.57</v>
       </c>
-      <c r="C46" s="113">
+      <c r="C46" s="115">
         <v>293.58000000000004</v>
       </c>
-      <c r="D46" s="114">
+      <c r="D46" s="116">
         <v>467.15000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="111">
+      <c r="A47" s="102">
         <v>45</v>
       </c>
-      <c r="B47" s="112">
+      <c r="B47" s="114">
         <v>118.16</v>
       </c>
-      <c r="C47" s="113">
+      <c r="C47" s="115">
         <v>132.71</v>
       </c>
-      <c r="D47" s="114">
+      <c r="D47" s="116">
         <v>250.87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="111">
+      <c r="A48" s="102">
         <v>46</v>
       </c>
-      <c r="B48" s="112">
+      <c r="B48" s="114">
         <v>142.07999999999998</v>
       </c>
-      <c r="C48" s="113">
+      <c r="C48" s="115">
         <v>386.59999999999997</v>
       </c>
-      <c r="D48" s="114">
+      <c r="D48" s="116">
         <v>528.67999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="111">
+      <c r="A49" s="102">
         <v>47</v>
       </c>
-      <c r="B49" s="112">
+      <c r="B49" s="114">
         <v>284.72000000000003</v>
       </c>
-      <c r="C49" s="113">
+      <c r="C49" s="115">
         <v>95</v>
       </c>
-      <c r="D49" s="114">
+      <c r="D49" s="116">
         <v>379.72</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="111">
+      <c r="A50" s="102">
         <v>48</v>
       </c>
-      <c r="B50" s="112">
+      <c r="B50" s="114">
         <v>142.58999999999997</v>
       </c>
-      <c r="C50" s="113">
+      <c r="C50" s="115">
         <v>352.4</v>
       </c>
-      <c r="D50" s="114">
+      <c r="D50" s="116">
         <v>494.98999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="111">
+      <c r="A51" s="102">
         <v>49</v>
       </c>
-      <c r="B51" s="112">
+      <c r="B51" s="114">
         <v>59.39</v>
       </c>
-      <c r="C51" s="113">
+      <c r="C51" s="115">
         <v>207.24</v>
       </c>
-      <c r="D51" s="114">
+      <c r="D51" s="116">
         <v>266.63</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="111">
+      <c r="A52" s="102">
         <v>50</v>
       </c>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113">
+      <c r="B52" s="114"/>
+      <c r="C52" s="115">
         <v>254.44</v>
       </c>
-      <c r="D52" s="114">
+      <c r="D52" s="116">
         <v>254.44</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="111">
+      <c r="A53" s="102">
         <v>51</v>
       </c>
-      <c r="B53" s="112">
+      <c r="B53" s="114">
         <v>119.58000000000001</v>
       </c>
-      <c r="C53" s="113">
+      <c r="C53" s="115">
         <v>392.12</v>
       </c>
-      <c r="D53" s="114">
+      <c r="D53" s="116">
         <v>511.70000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="111">
+      <c r="A54" s="102">
         <v>52</v>
       </c>
-      <c r="B54" s="112">
+      <c r="B54" s="114">
         <v>55.46</v>
       </c>
-      <c r="C54" s="113">
+      <c r="C54" s="115">
         <v>112.91999999999999</v>
       </c>
-      <c r="D54" s="114">
+      <c r="D54" s="116">
         <v>168.38</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="111">
+      <c r="A55" s="102">
         <v>53</v>
       </c>
-      <c r="B55" s="112">
+      <c r="B55" s="114">
         <v>70.61</v>
       </c>
-      <c r="C55" s="113">
+      <c r="C55" s="115">
         <v>99.96</v>
       </c>
-      <c r="D55" s="114">
+      <c r="D55" s="116">
         <v>170.57</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="111">
+      <c r="A56" s="102">
         <v>54</v>
       </c>
-      <c r="B56" s="112">
+      <c r="B56" s="114">
         <v>85.91</v>
       </c>
-      <c r="C56" s="113">
+      <c r="C56" s="115">
         <v>67.069999999999993</v>
       </c>
-      <c r="D56" s="114">
+      <c r="D56" s="116">
         <v>152.97999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="111">
+      <c r="A57" s="102">
         <v>55</v>
       </c>
-      <c r="B57" s="112"/>
-      <c r="C57" s="113">
+      <c r="B57" s="114"/>
+      <c r="C57" s="115">
         <v>72.78</v>
       </c>
-      <c r="D57" s="114">
+      <c r="D57" s="116">
         <v>72.78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="111">
+      <c r="A58" s="102">
         <v>56</v>
       </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113">
+      <c r="B58" s="114"/>
+      <c r="C58" s="115">
         <v>67.02</v>
       </c>
-      <c r="D58" s="114">
+      <c r="D58" s="116">
         <v>67.02</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="111">
+      <c r="A59" s="102">
         <v>57</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113">
+      <c r="B59" s="114"/>
+      <c r="C59" s="115">
         <v>196.31</v>
       </c>
-      <c r="D59" s="114">
+      <c r="D59" s="116">
         <v>196.31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="111">
+      <c r="A60" s="102">
         <v>58</v>
       </c>
-      <c r="B60" s="112">
+      <c r="B60" s="114">
         <v>53.2</v>
       </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="114">
+      <c r="C60" s="115"/>
+      <c r="D60" s="116">
         <v>53.2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="111">
+      <c r="A61" s="102">
         <v>59</v>
       </c>
-      <c r="B61" s="112">
+      <c r="B61" s="114">
         <v>42.33</v>
       </c>
-      <c r="C61" s="113"/>
-      <c r="D61" s="114">
+      <c r="C61" s="115"/>
+      <c r="D61" s="116">
         <v>42.33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="111">
+      <c r="A62" s="102">
         <v>60</v>
       </c>
-      <c r="B62" s="112">
+      <c r="B62" s="114">
         <v>46.24</v>
       </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="114">
+      <c r="C62" s="115"/>
+      <c r="D62" s="116">
         <v>46.24</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="111">
+      <c r="A63" s="102">
         <v>62</v>
       </c>
-      <c r="B63" s="112">
+      <c r="B63" s="114">
         <v>77.400000000000006</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114">
+      <c r="C63" s="115"/>
+      <c r="D63" s="116">
         <v>77.400000000000006</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="111">
+      <c r="A64" s="102">
         <v>63</v>
       </c>
-      <c r="B64" s="112">
+      <c r="B64" s="114">
         <v>39.17</v>
       </c>
-      <c r="C64" s="113"/>
-      <c r="D64" s="114">
+      <c r="C64" s="115"/>
+      <c r="D64" s="116">
         <v>39.17</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="111">
+      <c r="A65" s="102">
         <v>64</v>
       </c>
-      <c r="B65" s="112"/>
-      <c r="C65" s="113">
+      <c r="B65" s="114"/>
+      <c r="C65" s="115">
         <v>89.18</v>
       </c>
-      <c r="D65" s="114">
+      <c r="D65" s="116">
         <v>89.18</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="111">
+      <c r="A66" s="102">
         <v>67</v>
       </c>
-      <c r="B66" s="112">
+      <c r="B66" s="114">
         <v>108.39</v>
       </c>
-      <c r="C66" s="113"/>
-      <c r="D66" s="114">
+      <c r="C66" s="115"/>
+      <c r="D66" s="116">
         <v>108.39</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="111">
+      <c r="A67" s="102">
         <v>68</v>
       </c>
-      <c r="B67" s="112"/>
-      <c r="C67" s="113">
+      <c r="B67" s="114"/>
+      <c r="C67" s="115">
         <v>23.31</v>
       </c>
-      <c r="D67" s="114">
+      <c r="D67" s="116">
         <v>23.31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="119">
+      <c r="A68" s="104">
         <v>74</v>
       </c>
       <c r="B68" s="120"/>
@@ -74232,34 +74232,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="99" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="110">
+      <c r="B2" s="113">
         <v>14763.899999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="116">
         <v>24898.820000000018</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="119">
         <v>39662.720000000016</v>
       </c>
     </row>
